--- a/說明文件.xlsx
+++ b/說明文件.xlsx
@@ -291,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,9 +316,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +324,21 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,7 +638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -638,16 +650,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -657,161 +669,164 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.8" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="67.2" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="159.6" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="152.4" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" ht="35.4" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" ht="51" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="78">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="66.599999999999994" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="19.8">
       <c r="A15" s="5"/>

--- a/說明文件.xlsx
+++ b/說明文件.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>函式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>單軸運動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stopj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,43 +132,34 @@
   </si>
   <si>
     <t>範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假設目前IP位置為192.168.1.1
-輸入192.168.1.1後嘗試連線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假設目前六軸位置分別為1,1,1,1,1,1
-輸入1,0.3,0.1,1,1,1,1,1,1
-輸出J1朝6.28移動，其餘固定在1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假設目前座標位置分別為0.5,0.5,0.5,0,0,0
-輸入1,0.3,0.1,0.5,0.5,0.5,0,0,0
-輸出X軸正移動，其餘座標固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入0.3
-輸出用0.3加速度減速至0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入1,true
-輸出DO1狀態變為ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入一內容為URscript的txt檔
-輸出執行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>假設目前IP位置為192.168.1.1
 輸入192.168.1.1,30003後嘗試連線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳一整數
+連線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回傳一整數
+中斷連線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strURIP
+ int nURPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中斷連線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -188,22 +175,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回傳一整數
-連線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回傳一整數
-中斷連線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string strURIP
- int nURPort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int 方向,
+    <t>單軸運動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假設目前六軸位置分別為1,1,1,1,1,1
+輸入
+movejoint(1,0.3,0.1,1,1,1,1,1,1)
+輸出J1朝6.28移動，其餘固定在1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入stopj(0.3)
+輸出用0.3加速度減速至0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假設目前手臂IP位置為192.168.1.1
+輸入connect(192.168.1.1)後嘗試連線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假設目前座標位置分別為0.5,0.5,0.5,0,0,0
+輸入movel(1,0.3,0.1,0.5,0.5,0.5,0,0,0)
+輸出X軸正移動，其餘座標固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 方向(1,2,3,4,5,6-&gt;X,Y,Z,Rx,Ry,Rz),
 double 加速度(m/s^2)
 double 速度(m/s),
 double X座標(公尺),
@@ -214,6 +213,26 @@
 double Rz(徑度)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>輸入stopl(0.3)
+輸出用0.3加速度減速至0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入digital_output(1,true)
+輸出DO1狀態變為ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入一內容為URscript的txt檔
+例:do_work(fileinfo file)
+輸出執行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +281,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -291,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,41 +331,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -649,272 +682,285 @@
     <col min="4" max="4" width="26.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="22.2">
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.8" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="82.2" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="159.6" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="37.200000000000003" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="162.6" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="37.799999999999997" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="54.6" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="69.599999999999994" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="36.6" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.8" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" ht="66.599999999999994" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="67.2" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="159.6" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="16" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="152.4" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="37.799999999999997" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="35.4" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A10" s="11" t="s">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.399999999999999" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="66.599999999999994" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33.6" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A14" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.8">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="19.8">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -1159,11 +1205,27 @@
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
     </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
